--- a/TestData/InspectionPermission.xlsx
+++ b/TestData/InspectionPermission.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SVN\IronIntel\Doc\AutoTest\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A4D4291-12AF-4B01-9CBD-ACBBA1D16266}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0184E404-8C19-4526-8CEB-4BC1BEF08983}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21915" yWindow="3990" windowWidth="18645" windowHeight="12270" xr2:uid="{FF57EAB9-76D8-476B-A96B-8F98C477B7E3}"/>
+    <workbookView xWindow="11850" yWindow="2805" windowWidth="14760" windowHeight="11040" xr2:uid="{FF57EAB9-76D8-476B-A96B-8F98C477B7E3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -60,25 +60,25 @@
     <t>Inspections,Fuel Log</t>
   </si>
   <si>
-    <t>{"UserInfo":{"ID":"atpermission@iicon004.com","DisplayName":"Auto+Test+Permissions","TextAddress":"","Mobile":"","BusinessPhone":"","Active":true,"UserType":"1","IsUser":true,"AllowLoginIntoPC":true,"AllowLoginIntoInspectMobile":false,"AllowLoginIntoFleetMobile":false,"AllowMobileBarcodeScanning":false,"ContactType":"100","ManagerIID":"","Notes":"","AssignedWorkOrders":false,"EmailOptOut":false,"InspectEmailList":false,"TeamIntelligenceUser":false,"FOB":"","HourlyRate":-1,"LandingPage":"MapView.aspx","PreferredLanguage":"","IsAdvisor":false,"LocationIds":[],"DepartmentIds":[],"IID":"5AB99F30-4CC9-4C74-98C0-57A426A72114"},"Subscribe":{"$type":"FI.FIC.Contracts.DataObjects.BaseObject.SubscribeMessageByEmail,+FICIntfAdv","NeedSendMessages":[],"UserEmail":"","UserTextMessage":""},"Features":[{"Key":100,"Value":["0"]},{"Key":110,"Value":["0"]},{"Key":120,"Value":["0"]},{"Key":130,"Value":["0"]},{"Key":140,"Value":["0"]},{"Key":200,"Value":["0"]},{"Key":210,"Value":["0"]},{"Key":220,"Value":["0"]},{"Key":230,"Value":["0"]},{"Key":235,"Value":["0"]},{"Key":237,"Value":["0"]},{"Key":245,"Value":["0"]},{"Key":300,"Value":["0"]},{"Key":600,"Value":["0"]},{"Key":601,"Value":["0"]},{"Key":602,"Value":["0"]},{"Key":800,"Value":["0"]},{"Key":900,"Value":["0"]},{"Key":1000,"Value":["0"]},{"Key":1100,"Value":["99999"]},{"Key":1101,"Value":["0"]}],"Schedule":{"$type":"FI.FIC.EmailSchedule,+FICBLC","ScheduleItems":{"$type":"FI.FIC.EmailScheduleItem[],+FICBLC","$values":[]}}}</t>
-  </si>
-  <si>
-    <t>{"UserInfo":{"ID":"atpermission@iicon004.com","DisplayName":"Auto+Test+Permissions","TextAddress":"","Mobile":"","BusinessPhone":"","Active":true,"UserType":"1","IsUser":true,"AllowLoginIntoPC":true,"AllowLoginIntoInspectMobile":false,"AllowLoginIntoFleetMobile":false,"AllowMobileBarcodeScanning":false,"ContactType":"100","ManagerIID":"","Notes":"","AssignedWorkOrders":false,"EmailOptOut":false,"InspectEmailList":false,"TeamIntelligenceUser":false,"FOB":"","HourlyRate":-1,"LandingPage":"MapView.aspx","PreferredLanguage":"","IsAdvisor":false,"LocationIds":[],"DepartmentIds":[],"IID":"5AB99F30-4CC9-4C74-98C0-57A426A72114"},"Subscribe":{"$type":"FI.FIC.Contracts.DataObjects.BaseObject.SubscribeMessageByEmail,+FICIntfAdv","NeedSendMessages":[],"UserEmail":"","UserTextMessage":""},"Features":[{"Key":100,"Value":["0"]},{"Key":110,"Value":["0"]},{"Key":120,"Value":["0"]},{"Key":130,"Value":["0"]},{"Key":140,"Value":["0"]},{"Key":200,"Value":["0"]},{"Key":210,"Value":["0"]},{"Key":220,"Value":["0"]},{"Key":230,"Value":["0"]},{"Key":235,"Value":["0"]},{"Key":237,"Value":["0"]},{"Key":245,"Value":["0"]},{"Key":300,"Value":["0"]},{"Key":600,"Value":["0"]},{"Key":601,"Value":["0"]},{"Key":602,"Value":["0"]},{"Key":800,"Value":["0"]},{"Key":900,"Value":["0"]},{"Key":1000,"Value":["0"]},{"Key":1100,"Value":["0"]},{"Key":1101,"Value":["1"]}],"Schedule":{"$type":"FI.FIC.EmailSchedule,+FICBLC","ScheduleItems":{"$type":"FI.FIC.EmailScheduleItem[],+FICBLC","$values":[]}}}</t>
-  </si>
-  <si>
-    <t>{"UserInfo":{"ID":"atpermission@iicon004.com","DisplayName":"Auto+Test+Permissions","TextAddress":"","Mobile":"","BusinessPhone":"","Active":true,"UserType":"1","IsUser":true,"AllowLoginIntoPC":true,"AllowLoginIntoInspectMobile":false,"AllowLoginIntoFleetMobile":false,"AllowMobileBarcodeScanning":false,"ContactType":"100","ManagerIID":"","Notes":"","AssignedWorkOrders":false,"EmailOptOut":false,"InspectEmailList":false,"TeamIntelligenceUser":false,"FOB":"","HourlyRate":-1,"LandingPage":"MapView.aspx","PreferredLanguage":"","IsAdvisor":false,"LocationIds":[],"DepartmentIds":[],"IID":"5AB99F30-4CC9-4C74-98C0-57A426A72114"},"Subscribe":{"$type":"FI.FIC.Contracts.DataObjects.BaseObject.SubscribeMessageByEmail,+FICIntfAdv","NeedSendMessages":[],"UserEmail":"","UserTextMessage":""},"Features":[{"Key":100,"Value":["0"]},{"Key":110,"Value":["0"]},{"Key":120,"Value":["0"]},{"Key":130,"Value":["0"]},{"Key":140,"Value":["0"]},{"Key":200,"Value":["0"]},{"Key":210,"Value":["0"]},{"Key":220,"Value":["0"]},{"Key":230,"Value":["0"]},{"Key":235,"Value":["0"]},{"Key":237,"Value":["0"]},{"Key":245,"Value":["0"]},{"Key":300,"Value":["0"]},{"Key":600,"Value":["0"]},{"Key":601,"Value":["0"]},{"Key":602,"Value":["0"]},{"Key":800,"Value":["0"]},{"Key":900,"Value":["0"]},{"Key":1000,"Value":["0"]},{"Key":1100,"Value":["99999"]},{"Key":1101,"Value":["1"]}],"Schedule":{"$type":"FI.FIC.EmailSchedule,+FICBLC","ScheduleItems":{"$type":"FI.FIC.EmailScheduleItem[],+FICBLC","$values":[]}}}</t>
-  </si>
-  <si>
-    <t>{"UserInfo":{"ID":"atpermission@iicon004.com","DisplayName":"Auto+Test+Permissions","TextAddress":"","Mobile":"","BusinessPhone":"","Active":true,"UserType":"2","IsUser":true,"AllowLoginIntoPC":false,"AllowLoginIntoInspectMobile":false,"AllowLoginIntoFleetMobile":false,"AllowMobileBarcodeScanning":false,"ContactType":"100","ManagerIID":"","Notes":"","AssignedWorkOrders":false,"EmailOptOut":false,"InspectEmailList":false,"TeamIntelligenceUser":false,"FOB":"","HourlyRate":-1,"LandingPage":"MapView.aspx","PreferredLanguage":"","IsAdvisor":false,"LocationIds":[],"DepartmentIds":[],"IID":"5AB99F30-4CC9-4C74-98C0-57A426A72114"},"Subscribe":{"$type":"FI.FIC.Contracts.DataObjects.BaseObject.SubscribeMessageByEmail,+FICIntfAdv","NeedSendMessages":[],"UserEmail":"","UserTextMessage":""},"Features":[{"Key":100,"Value":["0"]},{"Key":110,"Value":["0"]},{"Key":120,"Value":["0"]},{"Key":130,"Value":["0"]},{"Key":140,"Value":["0"]},{"Key":200,"Value":["0"]},{"Key":210,"Value":["0"]},{"Key":220,"Value":["0"]},{"Key":230,"Value":["0"]},{"Key":235,"Value":["0"]},{"Key":237,"Value":["0"]},{"Key":245,"Value":["0"]},{"Key":300,"Value":["0"]},{"Key":600,"Value":["0"]},{"Key":601,"Value":["0"]},{"Key":602,"Value":["0"]},{"Key":800,"Value":["0"]},{"Key":900,"Value":["0"]},{"Key":1000,"Value":["0"]},{"Key":1100,"Value":["99999"]},{"Key":1101,"Value":["1"]}],"Schedule":{"$type":"FI.FIC.EmailSchedule,+FICBLC","ScheduleItems":{"$type":"FI.FIC.EmailScheduleItem[],+FICBLC","$values":[]}}}</t>
-  </si>
-  <si>
     <t>Templates,Draft,Published,Layouts</t>
   </si>
   <si>
-    <t>Templates,Draft,Published,Layouts,Inspections,Fuel Log</t>
-  </si>
-  <si>
-    <t>Global Sections,Templates,Draft,Published,Layouts,Inspections,Fuel Log</t>
+    <t>{"UserInfo":{"ID":"atpermission@iicon004.com","DisplayName":"Auto+Test+Permissions","TextAddress":"","Mobile":"","BusinessPhone":"","Active":true,"UserType":"1","IsUser":true,"AllowLoginIntoPC":true,"AllowLoginIntoInspectMobile":false,"AllowLoginIntoFleetMobile":false,"AllowMobileBarcodeScanning":false,"ContactType":"100","ManagerIID":"","Notes":"","AssignedWorkOrders":false,"EmailOptOut":false,"InspectEmailList":false,"TeamIntelligenceUser":false,"FOB":"","HourlyRate":-1,"LandingPage":"MapView.aspx","PreferredLanguage":"","IsAdvisor":false,"LoginVerifyType":"0","LocationIds":[],"DepartmentIds":[],"IID":"5AB99F30-4CC9-4C74-98C0-57A426A72114"},"Subscribe":{"$type":"FI.FIC.Contracts.DataObjects.BaseObject.SubscribeMessageByEmail,+FICIntfAdv","NeedSendMessages":[],"UserEmail":"","UserTextMessage":""},"Features":[{"Key":100,"Value":["0"]},{"Key":110,"Value":["0"]},{"Key":120,"Value":["0"]},{"Key":130,"Value":["0"]},{"Key":140,"Value":["0"]},{"Key":200,"Value":["0"]},{"Key":210,"Value":["0"]},{"Key":220,"Value":["0"]},{"Key":230,"Value":["0"]},{"Key":235,"Value":["0"]},{"Key":237,"Value":["0"]},{"Key":245,"Value":["0"]},{"Key":300,"Value":["0"]},{"Key":600,"Value":["0"]},{"Key":601,"Value":["0"]},{"Key":602,"Value":["0"]},{"Key":800,"Value":["0"]},{"Key":900,"Value":["0"]},{"Key":1000,"Value":["0"]},{"Key":1100,"Value":["99999"]},{"Key":1101,"Value":["0"]}],"Schedule":{"$type":"FI.FIC.EmailSchedule,+FICBLC","ScheduleItems":{"$type":"FI.FIC.EmailScheduleItem[],+FICBLC","$values":[]}}}</t>
+  </si>
+  <si>
+    <t>{"UserInfo":{"ID":"atpermission@iicon004.com","DisplayName":"Auto+Test+Permissions","TextAddress":"","Mobile":"","BusinessPhone":"","Active":true,"UserType":"1","IsUser":true,"AllowLoginIntoPC":true,"AllowLoginIntoInspectMobile":false,"AllowLoginIntoFleetMobile":false,"AllowMobileBarcodeScanning":false,"ContactType":"100","ManagerIID":"","Notes":"","AssignedWorkOrders":false,"EmailOptOut":false,"InspectEmailList":false,"TeamIntelligenceUser":false,"FOB":"","HourlyRate":-1,"LandingPage":"MapView.aspx","PreferredLanguage":"","IsAdvisor":false,"LoginVerifyType":"0","LocationIds":[],"DepartmentIds":[],"IID":"5AB99F30-4CC9-4C74-98C0-57A426A72114"},"Subscribe":{"$type":"FI.FIC.Contracts.DataObjects.BaseObject.SubscribeMessageByEmail,+FICIntfAdv","NeedSendMessages":[],"UserEmail":"","UserTextMessage":""},"Features":[{"Key":100,"Value":["0"]},{"Key":110,"Value":["0"]},{"Key":120,"Value":["0"]},{"Key":130,"Value":["0"]},{"Key":140,"Value":["0"]},{"Key":200,"Value":["0"]},{"Key":210,"Value":["0"]},{"Key":220,"Value":["0"]},{"Key":230,"Value":["0"]},{"Key":235,"Value":["0"]},{"Key":237,"Value":["0"]},{"Key":245,"Value":["0"]},{"Key":300,"Value":["0"]},{"Key":600,"Value":["0"]},{"Key":601,"Value":["0"]},{"Key":602,"Value":["0"]},{"Key":800,"Value":["0"]},{"Key":900,"Value":["0"]},{"Key":1000,"Value":["0"]},{"Key":1100,"Value":["0"]},{"Key":1101,"Value":["1"]}],"Schedule":{"$type":"FI.FIC.EmailSchedule,+FICBLC","ScheduleItems":{"$type":"FI.FIC.EmailScheduleItem[],+FICBLC","$values":[]}}}</t>
+  </si>
+  <si>
+    <t>{"UserInfo":{"ID":"atpermission@iicon004.com","DisplayName":"Auto+Test+Permissions","TextAddress":"","Mobile":"","BusinessPhone":"","Active":true,"UserType":"1","IsUser":true,"AllowLoginIntoPC":true,"AllowLoginIntoInspectMobile":false,"AllowLoginIntoFleetMobile":false,"AllowMobileBarcodeScanning":false,"ContactType":"100","ManagerIID":"","Notes":"","AssignedWorkOrders":false,"EmailOptOut":false,"InspectEmailList":false,"TeamIntelligenceUser":false,"FOB":"","HourlyRate":-1,"LandingPage":"MapView.aspx","PreferredLanguage":"","IsAdvisor":false,"LoginVerifyType":"0","LocationIds":[],"DepartmentIds":[],"IID":"5AB99F30-4CC9-4C74-98C0-57A426A72114"},"Subscribe":{"$type":"FI.FIC.Contracts.DataObjects.BaseObject.SubscribeMessageByEmail,+FICIntfAdv","NeedSendMessages":[],"UserEmail":"","UserTextMessage":""},"Features":[{"Key":100,"Value":["0"]},{"Key":110,"Value":["0"]},{"Key":120,"Value":["0"]},{"Key":130,"Value":["0"]},{"Key":140,"Value":["0"]},{"Key":200,"Value":["0"]},{"Key":210,"Value":["0"]},{"Key":220,"Value":["0"]},{"Key":230,"Value":["0"]},{"Key":235,"Value":["0"]},{"Key":237,"Value":["0"]},{"Key":245,"Value":["0"]},{"Key":300,"Value":["0"]},{"Key":600,"Value":["0"]},{"Key":601,"Value":["0"]},{"Key":602,"Value":["0"]},{"Key":800,"Value":["0"]},{"Key":900,"Value":["0"]},{"Key":1000,"Value":["0"]},{"Key":1100,"Value":["99999"]},{"Key":1101,"Value":["1"]}],"Schedule":{"$type":"FI.FIC.EmailSchedule,+FICBLC","ScheduleItems":{"$type":"FI.FIC.EmailScheduleItem[],+FICBLC","$values":[]}}}</t>
+  </si>
+  <si>
+    <t>{"UserInfo":{"ID":"atpermission@iicon004.com","DisplayName":"Auto+Test+Permissions","TextAddress":"","Mobile":"","BusinessPhone":"","Active":true,"UserType":"2","IsUser":true,"AllowLoginIntoPC":false,"AllowLoginIntoInspectMobile":false,"AllowLoginIntoFleetMobile":false,"AllowMobileBarcodeScanning":false,"ContactType":"100","ManagerIID":"","Notes":"","AssignedWorkOrders":false,"EmailOptOut":false,"InspectEmailList":false,"TeamIntelligenceUser":false,"FOB":"","HourlyRate":-1,"LandingPage":"MapView.aspx","PreferredLanguage":"","IsAdvisor":false,"LoginVerifyType":"0","LocationIds":[],"DepartmentIds":[],"IID":"5AB99F30-4CC9-4C74-98C0-57A426A72114"},"Subscribe":{"$type":"FI.FIC.Contracts.DataObjects.BaseObject.SubscribeMessageByEmail,+FICIntfAdv","NeedSendMessages":[],"UserEmail":"","UserTextMessage":""},"Features":[{"Key":100,"Value":["0"]},{"Key":110,"Value":["0"]},{"Key":120,"Value":["0"]},{"Key":130,"Value":["0"]},{"Key":140,"Value":["0"]},{"Key":200,"Value":["0"]},{"Key":210,"Value":["0"]},{"Key":220,"Value":["0"]},{"Key":230,"Value":["0"]},{"Key":235,"Value":["0"]},{"Key":237,"Value":["0"]},{"Key":245,"Value":["0"]},{"Key":300,"Value":["0"]},{"Key":600,"Value":["0"]},{"Key":601,"Value":["0"]},{"Key":602,"Value":["0"]},{"Key":800,"Value":["0"]},{"Key":900,"Value":["0"]},{"Key":1000,"Value":["0"]},{"Key":1100,"Value":["99999"]},{"Key":1101,"Value":["1"]}],"Schedule":{"$type":"FI.FIC.EmailSchedule,+FICBLC","ScheduleItems":{"$type":"FI.FIC.EmailScheduleItem[],+FICBLC","$values":[]}}}</t>
+  </si>
+  <si>
+    <t>Inspections,Fuel Log,Templates,Draft,Published,Layouts</t>
+  </si>
+  <si>
+    <t>Inspections,Fuel Log,Global Sections,Templates,Draft,Published,Layouts</t>
   </si>
 </sst>
 </file>
@@ -125,7 +125,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -141,7 +141,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -440,7 +440,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -466,10 +466,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
         <v>8</v>
-      </c>
-      <c r="C2" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -477,7 +477,7 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s">
         <v>7</v>
@@ -488,7 +488,7 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C4" t="s">
         <v>13</v>
@@ -499,7 +499,7 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C5" t="s">
         <v>14</v>
